--- a/docs/shr-core-LaboratoryObservation.xlsx
+++ b/docs/shr-core-LaboratoryObservation.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$75</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="417">
   <si>
     <t>Path</t>
   </si>
@@ -150,7 +150,7 @@
     <t>shr-core-LaboratoryObservation</t>
   </si>
   <si>
-    <t>A coded finding based on a specimen collected from a patient.</t>
+    <t>A coded finding based on a specimen, usually collected from a patient (but possibly from a location).</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as lab reports, etc.</t>
@@ -428,6 +428,9 @@
     <t>Observation.identifier</t>
   </si>
   <si>
+    <t>Observation:argoprofile.identifier</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
@@ -441,10 +444,56 @@
     <t>Allows observations to be distinguished and referenced.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:Type.coding.code}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>OBX.21</t>
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>shr-core-AccessionIdentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-AccessionIdentifier]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>AccessionIdentifier</t>
+  </si>
+  <si>
+    <t>Identifier assigned by the lab</t>
+  </si>
+  <si>
+    <t>shr-core-FillerOrderNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-FillerOrderNumber]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>FillerOrderNumber</t>
+  </si>
+  <si>
+    <t>Identifier assigned by the lab carrying out the test.</t>
+  </si>
+  <si>
+    <t>shr-core-PlacerOrderNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PlacerOrderNumber]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>PlacerOrderNumber</t>
+  </si>
+  <si>
+    <t>Identifier assigned by the requester of the lab.</t>
   </si>
   <si>
     <t>Observation.status</t>
@@ -651,6 +700,9 @@
     <t>Observation.performer</t>
   </si>
   <si>
+    <t>Observation:argoprofile.performer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson]]}
 </t>
   </si>
@@ -664,6 +716,10 @@
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
+    <t>profile:target.reference}
+profile:target.reference}profile:target.reference}</t>
+  </si>
+  <si>
     <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
   </si>
   <si>
@@ -671,6 +727,45 @@
   </si>
   <si>
     <t>who.actor</t>
+  </si>
+  <si>
+    <t>shr-core-ResponsibleObserver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson]]}
+</t>
+  </si>
+  <si>
+    <t>ResponsibleObserver</t>
+  </si>
+  <si>
+    <t>Person directly responsible for carrying out the test.</t>
+  </si>
+  <si>
+    <t>shr-core-PerformingLaboratory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson]]}
+</t>
+  </si>
+  <si>
+    <t>PerformingLaboratory</t>
+  </si>
+  <si>
+    <t>Organization responsible for carrying out the test.</t>
+  </si>
+  <si>
+    <t>shr-core-PerformingOrganizationMedicalDirector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson]]}
+</t>
+  </si>
+  <si>
+    <t>PerformingOrganizationMedicalDirector</t>
+  </si>
+  <si>
+    <t>Director of the laboratory performing the test.</t>
   </si>
   <si>
     <t>Observation.value[x]</t>
@@ -795,7 +890,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodySiteVS</t>
+    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>OBX-20</t>
@@ -1371,7 +1466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM69"/>
+  <dimension ref="A1:AM75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1381,7 +1476,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.0625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1404,9 +1499,9 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.3515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="44.61328125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
@@ -3236,7 +3331,9 @@
       <c r="A18" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3257,17 +3354,17 @@
         <v>42</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>42</v>
@@ -3304,16 +3401,14 @@
         <v>42</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AB18" s="2"/>
       <c r="AC18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>131</v>
@@ -3331,52 +3426,52 @@
         <v>42</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3400,11 +3495,13 @@
         <v>40</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X19" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y19" t="s" s="2">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>42</v>
@@ -3422,13 +3519,13 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>42</v>
@@ -3437,32 +3534,34 @@
         <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AL19" t="s" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>145</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>42</v>
@@ -3471,17 +3570,15 @@
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>150</v>
-      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>42</v>
@@ -3491,7 +3588,7 @@
         <v>42</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>42</v>
@@ -3506,13 +3603,13 @@
         <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>42</v>
@@ -3530,13 +3627,13 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>42</v>
@@ -3545,32 +3642,34 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="C21" t="s" s="2">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>42</v>
@@ -3579,20 +3678,16 @@
         <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3616,13 +3711,13 @@
         <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>42</v>
@@ -3640,13 +3735,13 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>42</v>
@@ -3655,18 +3750,18 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>166</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3683,25 +3778,23 @@
         <v>52</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>42</v>
@@ -3726,13 +3819,11 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>42</v>
@@ -3750,10 +3841,10 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>51</v>
@@ -3765,18 +3856,18 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3784,13 +3875,13 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>42</v>
@@ -3799,18 +3890,18 @@
         <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>42</v>
       </c>
@@ -3819,7 +3910,7 @@
         <v>42</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>42</v>
@@ -3834,13 +3925,13 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>42</v>
@@ -3858,7 +3949,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3873,26 +3964,26 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>51</v>
@@ -3907,19 +3998,19 @@
         <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>42</v>
@@ -3944,13 +4035,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>42</v>
@@ -3968,10 +4059,10 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>51</v>
@@ -3980,21 +4071,21 @@
         <v>42</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4002,33 +4093,35 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4076,7 +4169,7 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -4091,18 +4184,18 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4113,7 +4206,7 @@
         <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>42</v>
@@ -4122,20 +4215,20 @@
         <v>42</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>42</v>
@@ -4184,13 +4277,13 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>42</v>
@@ -4199,18 +4292,18 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4233,19 +4326,19 @@
         <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>42</v>
@@ -4294,7 +4387,7 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -4306,21 +4399,21 @@
         <v>42</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>42</v>
+        <v>208</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4334,29 +4427,27 @@
         <v>51</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>42</v>
       </c>
@@ -4380,11 +4471,13 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X28" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y28" t="s" s="2">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>42</v>
@@ -4402,7 +4495,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4411,35 +4504,37 @@
         <v>51</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>224</v>
+        <v>42</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>42</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="C29" t="s" s="2">
-        <v>227</v>
+        <v>42</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>42</v>
@@ -4448,20 +4543,20 @@
         <v>42</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -4486,37 +4581,35 @@
         <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>231</v>
+        <v>42</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>42</v>
@@ -4525,20 +4618,22 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>42</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4556,21 +4651,19 @@
         <v>42</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>239</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4618,13 +4711,13 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>42</v>
@@ -4633,20 +4726,22 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>42</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4655,7 +4750,7 @@
         <v>40</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>42</v>
@@ -4664,23 +4759,19 @@
         <v>42</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4704,11 +4795,13 @@
         <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y31" t="s" s="2">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>42</v>
@@ -4726,13 +4819,13 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>42</v>
@@ -4741,20 +4834,22 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>42</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="C32" t="s" s="2">
         <v>42</v>
       </c>
@@ -4772,16 +4867,16 @@
         <v>42</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>53</v>
+        <v>235</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>63</v>
+        <v>237</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4805,7 +4900,7 @@
         <v>42</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
         <v>42</v>
@@ -4831,11 +4926,15 @@
       <c r="AD32" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE32" s="2"/>
+      <c r="AE32" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG32" s="2"/>
+      <c r="AG32" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH32" t="s" s="2">
         <v>42</v>
       </c>
@@ -4843,32 +4942,32 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>42</v>
+        <v>223</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>42</v>
+        <v>225</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>42</v>
@@ -4877,18 +4976,20 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>67</v>
+        <v>239</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>68</v>
+        <v>240</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>69</v>
+        <v>241</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
       </c>
@@ -4909,7 +5010,7 @@
         <v>42</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
         <v>42</v>
@@ -4935,30 +5036,34 @@
       <c r="AD33" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE33" s="2"/>
+      <c r="AE33" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG33" s="2"/>
+      <c r="AG33" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>42</v>
+        <v>245</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>64</v>
+        <v>246</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4969,31 +5074,31 @@
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -5015,16 +5120,14 @@
         <v>42</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
@@ -5041,22 +5144,26 @@
       <c r="AD34" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE34" s="2"/>
+      <c r="AE34" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG34" s="2"/>
+      <c r="AG34" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH34" t="s" s="2">
-        <v>42</v>
+        <v>253</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>258</v>
+        <v>125</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>42</v>
@@ -5064,11 +5171,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>42</v>
+        <v>256</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5084,22 +5191,20 @@
         <v>42</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
@@ -5121,16 +5226,16 @@
         <v>42</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>42</v>
+        <v>261</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>42</v>
@@ -5147,11 +5252,15 @@
       <c r="AD35" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE35" s="2"/>
+      <c r="AE35" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG35" s="2"/>
+      <c r="AG35" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5159,10 +5268,10 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>42</v>
@@ -5170,7 +5279,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5193,19 +5302,17 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5230,13 +5337,13 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>272</v>
+        <v>42</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>273</v>
+        <v>42</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>42</v>
@@ -5254,7 +5361,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5269,10 +5376,10 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>42</v>
@@ -5280,7 +5387,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5291,7 +5398,7 @@
         <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>42</v>
@@ -5303,18 +5410,20 @@
         <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>277</v>
+        <v>162</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
       </c>
@@ -5338,13 +5447,11 @@
         <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>42</v>
@@ -5362,7 +5469,7 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5377,10 +5484,10 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>42</v>
@@ -5388,7 +5495,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5411,17 +5518,15 @@
         <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>285</v>
+        <v>62</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>42</v>
@@ -5443,7 +5548,7 @@
         <v>42</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W38" t="s" s="2">
         <v>42</v>
@@ -5469,15 +5574,11 @@
       <c r="AD38" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE38" t="s" s="2">
-        <v>283</v>
-      </c>
+      <c r="AE38" s="2"/>
       <c r="AF38" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG38" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG38" s="2"/>
       <c r="AH38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5485,10 +5586,10 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>288</v>
+        <v>42</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>289</v>
+        <v>64</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>42</v>
@@ -5496,18 +5597,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>42</v>
@@ -5519,20 +5620,18 @@
         <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>291</v>
+        <v>67</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>292</v>
+        <v>68</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>293</v>
+        <v>69</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>42</v>
       </c>
@@ -5553,7 +5652,7 @@
         <v>42</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W39" t="s" s="2">
         <v>42</v>
@@ -5579,26 +5678,22 @@
       <c r="AD39" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE39" t="s" s="2">
-        <v>290</v>
-      </c>
+      <c r="AE39" s="2"/>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG39" s="2"/>
       <c r="AH39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>296</v>
+        <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>297</v>
+        <v>42</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>298</v>
+        <v>64</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>42</v>
@@ -5606,7 +5701,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5617,7 +5712,7 @@
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>42</v>
@@ -5626,19 +5721,23 @@
         <v>42</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>62</v>
+        <v>283</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
       </c>
@@ -5659,7 +5758,7 @@
         <v>42</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W40" t="s" s="2">
         <v>42</v>
@@ -5685,15 +5784,11 @@
       <c r="AD40" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE40" t="s" s="2">
-        <v>299</v>
-      </c>
+      <c r="AE40" s="2"/>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG40" s="2"/>
       <c r="AH40" t="s" s="2">
         <v>42</v>
       </c>
@@ -5701,10 +5796,10 @@
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>42</v>
+        <v>287</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>64</v>
+        <v>288</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -5712,18 +5807,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>42</v>
@@ -5732,21 +5827,23 @@
         <v>42</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>67</v>
+        <v>265</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>68</v>
+        <v>290</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>69</v>
+        <v>291</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
       </c>
@@ -5767,7 +5864,7 @@
         <v>42</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W41" t="s" s="2">
         <v>42</v>
@@ -5793,15 +5890,11 @@
       <c r="AD41" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE41" t="s" s="2">
-        <v>300</v>
-      </c>
+      <c r="AE41" s="2"/>
       <c r="AF41" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG41" s="2"/>
       <c r="AH41" t="s" s="2">
         <v>42</v>
       </c>
@@ -5809,10 +5902,10 @@
         <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>64</v>
+        <v>295</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>42</v>
@@ -5820,41 +5913,43 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>302</v>
+        <v>42</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>129</v>
+        <v>297</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
       </c>
@@ -5878,13 +5973,13 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>42</v>
+        <v>301</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>42</v>
+        <v>302</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>42</v>
@@ -5902,13 +5997,13 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>42</v>
@@ -5917,10 +6012,10 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>42</v>
+        <v>303</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>125</v>
+        <v>304</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>42</v>
@@ -5928,7 +6023,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5951,15 +6046,17 @@
         <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>42</v>
@@ -6008,7 +6105,7 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -6017,16 +6114,16 @@
         <v>51</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>308</v>
+        <v>42</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>42</v>
@@ -6034,7 +6131,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6057,15 +6154,17 @@
         <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>42</v>
@@ -6114,7 +6213,7 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -6123,16 +6222,16 @@
         <v>51</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>308</v>
+        <v>42</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>42</v>
@@ -6140,7 +6239,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6163,19 +6262,19 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>147</v>
+        <v>320</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>42</v>
@@ -6200,13 +6299,13 @@
         <v>40</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>321</v>
+        <v>42</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>42</v>
@@ -6224,25 +6323,25 @@
         <v>42</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>42</v>
+        <v>325</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>234</v>
+        <v>327</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>42</v>
@@ -6250,7 +6349,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6273,18 +6372,16 @@
         <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>324</v>
+        <v>53</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>325</v>
+        <v>62</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>326</v>
+        <v>63</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" t="s" s="2">
-        <v>327</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>42</v>
       </c>
@@ -6332,7 +6429,7 @@
         <v>42</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6350,7 +6447,7 @@
         <v>42</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>328</v>
+        <v>64</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
@@ -6362,14 +6459,14 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>42</v>
@@ -6381,15 +6478,17 @@
         <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>236</v>
+        <v>67</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>330</v>
+        <v>68</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>42</v>
@@ -6444,7 +6543,7 @@
         <v>40</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>42</v>
@@ -6453,10 +6552,10 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>309</v>
+        <v>42</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>332</v>
+        <v>64</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -6464,43 +6563,41 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>42</v>
+        <v>331</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>291</v>
+        <v>67</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>334</v>
+        <v>129</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>42</v>
       </c>
@@ -6548,7 +6645,7 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6563,10 +6660,10 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>338</v>
+        <v>42</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>339</v>
+        <v>125</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>42</v>
@@ -6574,7 +6671,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6597,13 +6694,13 @@
         <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>53</v>
+        <v>334</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>62</v>
+        <v>335</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>63</v>
+        <v>336</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6654,7 +6751,7 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6663,16 +6760,16 @@
         <v>51</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>42</v>
+        <v>337</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>42</v>
+        <v>338</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>64</v>
+        <v>339</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6680,18 +6777,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>42</v>
@@ -6703,17 +6800,15 @@
         <v>42</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>67</v>
+        <v>334</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>68</v>
+        <v>341</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>42</v>
@@ -6762,25 +6857,25 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>42</v>
+        <v>337</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>42</v>
+        <v>338</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>64</v>
+        <v>343</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
@@ -6788,41 +6883,43 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>302</v>
+        <v>42</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>129</v>
+        <v>345</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>42</v>
       </c>
@@ -6846,13 +6943,13 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>42</v>
+        <v>349</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>42</v>
+        <v>350</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>42</v>
@@ -6870,13 +6967,13 @@
         <v>42</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>42</v>
@@ -6885,10 +6982,10 @@
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>42</v>
+        <v>351</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>125</v>
+        <v>263</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -6896,7 +6993,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6919,26 +7016,24 @@
         <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>104</v>
+        <v>353</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>348</v>
+        <v>42</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>42</v>
@@ -6956,13 +7051,13 @@
         <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>349</v>
+        <v>42</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>350</v>
+        <v>42</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>42</v>
@@ -6980,7 +7075,7 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -6995,10 +7090,10 @@
         <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>42</v>
@@ -7006,7 +7101,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7014,7 +7109,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>51</v>
@@ -7029,13 +7124,13 @@
         <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>353</v>
+        <v>265</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7086,10 +7181,10 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>51</v>
@@ -7101,10 +7196,10 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>42</v>
+        <v>338</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>42</v>
@@ -7112,7 +7207,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7135,19 +7230,19 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>42</v>
@@ -7196,7 +7291,7 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -7211,10 +7306,10 @@
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>42</v>
@@ -7222,7 +7317,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7302,7 +7397,7 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -7328,7 +7423,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7410,7 +7505,7 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7436,11 +7531,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7465,7 +7560,7 @@
         <v>129</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>70</v>
@@ -7518,7 +7613,7 @@
         <v>42</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7544,7 +7639,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7552,7 +7647,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>51</v>
@@ -7564,27 +7659,29 @@
         <v>42</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="N58" t="s" s="2">
-        <v>161</v>
+        <v>376</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>42</v>
+        <v>377</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>42</v>
@@ -7602,13 +7699,13 @@
         <v>40</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>163</v>
+        <v>379</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>42</v>
@@ -7626,33 +7723,33 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>370</v>
+        <v>42</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>165</v>
+        <v>380</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>166</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7660,7 +7757,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>51</v>
@@ -7672,23 +7769,19 @@
         <v>42</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>210</v>
+        <v>382</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>42</v>
       </c>
@@ -7736,10 +7829,10 @@
         <v>42</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>51</v>
@@ -7751,10 +7844,10 @@
         <v>42</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>217</v>
+        <v>385</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>42</v>
@@ -7762,7 +7855,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7773,7 +7866,7 @@
         <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>42</v>
@@ -7782,22 +7875,22 @@
         <v>42</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>147</v>
+        <v>320</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>220</v>
+        <v>388</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>222</v>
+        <v>389</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>42</v>
@@ -7822,11 +7915,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X60" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y60" t="s" s="2">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>42</v>
@@ -7844,25 +7939,25 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>224</v>
+        <v>42</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>125</v>
+        <v>390</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>225</v>
+        <v>391</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>42</v>
@@ -7870,7 +7965,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7881,7 +7976,7 @@
         <v>40</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>42</v>
@@ -7893,20 +7988,16 @@
         <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>291</v>
+        <v>53</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>379</v>
+        <v>62</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>42</v>
       </c>
@@ -7927,7 +8018,7 @@
         <v>42</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W61" t="s" s="2">
         <v>42</v>
@@ -7954,13 +8045,13 @@
         <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>42</v>
@@ -7969,10 +8060,10 @@
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>297</v>
+        <v>42</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>298</v>
+        <v>64</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>42</v>
@@ -7980,18 +8071,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>42</v>
@@ -8003,15 +8094,17 @@
         <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>42</v>
@@ -8033,7 +8126,7 @@
         <v>42</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W62" t="s" s="2">
         <v>42</v>
@@ -8059,11 +8152,15 @@
       <c r="AD62" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE62" s="2"/>
+      <c r="AE62" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG62" s="2"/>
+      <c r="AG62" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH62" t="s" s="2">
         <v>42</v>
       </c>
@@ -8082,11 +8179,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>66</v>
+        <v>331</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8099,7 +8196,7 @@
         <v>42</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>42</v>
@@ -8108,10 +8205,10 @@
         <v>67</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>69</v>
+        <v>332</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>70</v>
@@ -8137,7 +8234,7 @@
         <v>42</v>
       </c>
       <c r="V63" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W63" t="s" s="2">
         <v>42</v>
@@ -8163,11 +8260,15 @@
       <c r="AD63" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE63" s="2"/>
+      <c r="AE63" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG63" s="2"/>
+      <c r="AG63" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH63" t="s" s="2">
         <v>42</v>
       </c>
@@ -8178,7 +8279,7 @@
         <v>42</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>42</v>
@@ -8186,41 +8287,41 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>302</v>
+        <v>42</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I64" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="I64" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J64" t="s" s="2">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>129</v>
+        <v>396</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
       </c>
@@ -8241,16 +8342,16 @@
         <v>42</v>
       </c>
       <c r="V64" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>42</v>
+        <v>398</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>42</v>
@@ -8267,30 +8368,34 @@
       <c r="AD64" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE64" s="2"/>
+      <c r="AE64" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="AF64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG64" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH64" t="s" s="2">
-        <v>42</v>
+        <v>399</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>42</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8310,19 +8415,23 @@
         <v>42</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>305</v>
+        <v>239</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>306</v>
+        <v>401</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>42</v>
       </c>
@@ -8343,7 +8452,7 @@
         <v>42</v>
       </c>
       <c r="V65" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W65" t="s" s="2">
         <v>42</v>
@@ -8369,22 +8478,26 @@
       <c r="AD65" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE65" s="2"/>
+      <c r="AE65" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG65" s="2"/>
+      <c r="AG65" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH65" t="s" s="2">
-        <v>308</v>
+        <v>42</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>309</v>
+        <v>245</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>310</v>
+        <v>246</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>42</v>
@@ -8392,7 +8505,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8415,16 +8528,20 @@
         <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>305</v>
+        <v>162</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>312</v>
+        <v>405</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>42</v>
       </c>
@@ -8445,16 +8562,14 @@
         <v>42</v>
       </c>
       <c r="V66" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>42</v>
@@ -8471,22 +8586,26 @@
       <c r="AD66" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE66" s="2"/>
+      <c r="AE66" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG66" s="2"/>
+      <c r="AG66" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH66" t="s" s="2">
-        <v>308</v>
+        <v>253</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>309</v>
+        <v>125</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
@@ -8494,7 +8613,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8505,7 +8624,7 @@
         <v>40</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>42</v>
@@ -8517,19 +8636,19 @@
         <v>42</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>147</v>
+        <v>320</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>316</v>
+        <v>408</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>42</v>
@@ -8554,13 +8673,13 @@
         <v>42</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>321</v>
+        <v>42</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>42</v>
@@ -8577,11 +8696,15 @@
       <c r="AD67" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE67" s="2"/>
+      <c r="AE67" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG67" s="2"/>
+      <c r="AG67" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH67" t="s" s="2">
         <v>42</v>
       </c>
@@ -8589,10 +8712,10 @@
         <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>234</v>
+        <v>327</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>42</v>
@@ -8600,7 +8723,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8623,18 +8746,16 @@
         <v>42</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>324</v>
+        <v>53</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>325</v>
+        <v>62</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>326</v>
+        <v>63</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>327</v>
-      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>42</v>
       </c>
@@ -8696,7 +8817,7 @@
         <v>42</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>328</v>
+        <v>64</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>42</v>
@@ -8704,18 +8825,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>42</v>
@@ -8727,15 +8848,17 @@
         <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>236</v>
+        <v>67</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>330</v>
+        <v>68</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>42</v>
@@ -8795,17 +8918,637 @@
         <v>42</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>309</v>
+        <v>42</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AL69" t="s" s="2">
+      <c r="M70" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE70" s="2"/>
+      <c r="AF70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG70" s="2"/>
+      <c r="AH70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE71" s="2"/>
+      <c r="AF71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG71" s="2"/>
+      <c r="AH71" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE72" s="2"/>
+      <c r="AF72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG72" s="2"/>
+      <c r="AH72" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE73" s="2"/>
+      <c r="AF73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG73" s="2"/>
+      <c r="AH73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE74" s="2"/>
+      <c r="AF74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG74" s="2"/>
+      <c r="AH74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE75" s="2"/>
+      <c r="AF75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG75" s="2"/>
+      <c r="AH75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL69">
+  <autoFilter ref="A1:AL75">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8815,7 +9558,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI68">
+  <conditionalFormatting sqref="A2:AI74">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
